--- a/PruebaEcoComputo/Downloads/EcoProducts.xlsx
+++ b/PruebaEcoComputo/Downloads/EcoProducts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Colombiana</t>
+  </si>
+  <si>
+    <t>decimal</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -115,7 +118,7 @@
         <v>2500</v>
       </c>
       <c r="D2" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3">
@@ -129,7 +132,7 @@
         <v>2300</v>
       </c>
       <c r="D3" s="2">
-        <v>500</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4">
@@ -143,7 +146,7 @@
         <v>1700</v>
       </c>
       <c r="D4" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
@@ -157,7 +160,21 @@
         <v>2600</v>
       </c>
       <c r="D5" s="2">
-        <v>485</v>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3050.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
